--- a/data/tmp/export-file/sssssstwo-step-verification.xlsx
+++ b/data/tmp/export-file/sssssstwo-step-verification.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Danh sách file tải lên</t>
   </si>
@@ -64,37 +64,142 @@
     <t>Nén</t>
   </si>
   <si>
-    <t>123-44</t>
-  </si>
-  <si>
-    <t>/uploads/fileserver/123</t>
+    <t>bot.jpg</t>
+  </si>
+  <si>
+    <t>bot-jpg-1</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/bot.jpg</t>
+  </si>
+  <si>
+    <t>409.87 KB</t>
+  </si>
+  <si>
+    <t>09/01/2025</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>abc-2</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/abc</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t>30/12/2024</t>
-  </si>
-  <si>
-    <t>download-1.jpg</t>
-  </si>
-  <si>
-    <t>download-1-jpg-45</t>
-  </si>
-  <si>
-    <t>/uploads/fileserver/download-1.jpg</t>
-  </si>
-  <si>
-    <t>0.01 KB</t>
+    <t>01/01/1970</t>
   </si>
   <si>
     <t>test.txt</t>
   </si>
   <si>
-    <t>test-txt-46</t>
+    <t>compressed-1736388207-zip-3</t>
   </si>
   <si>
     <t>/uploads/fileserver/test.txt</t>
+  </si>
+  <si>
+    <t>0.06 KB</t>
+  </si>
+  <si>
+    <t>test1.txt</t>
+  </si>
+  <si>
+    <t>test1-txt-5</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/test1.txt</t>
+  </si>
+  <si>
+    <t>0.05 KB</t>
+  </si>
+  <si>
+    <t>xyz.txt</t>
+  </si>
+  <si>
+    <t>xyz-txt-6</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/abc/xyz.txt</t>
+  </si>
+  <si>
+    <t>123-7</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/abc/123</t>
+  </si>
+  <si>
+    <t>compressed_1736388207</t>
+  </si>
+  <si>
+    <t>compressed-1736388207-zip-8</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/compressed_1736388207</t>
+  </si>
+  <si>
+    <t>410.31 KB</t>
+  </si>
+  <si>
+    <t>bot-jpg-9</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/compressed_1736388207/bot.jpg</t>
+  </si>
+  <si>
+    <t>abc-10</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/compressed_1736388207/abc/</t>
+  </si>
+  <si>
+    <t>123-11</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/compressed_1736388207/abc/123/</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>index-html-12</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/compressed_1736388207/abc/123/index.html</t>
+  </si>
+  <si>
+    <t>index-html-13</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/compressed_1736388207/abc/index.html</t>
+  </si>
+  <si>
+    <t>xyz-txt-14</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/compressed_1736388207/abc/xyz.txt</t>
+  </si>
+  <si>
+    <t>test-txt-15</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/compressed_1736388207/test.txt</t>
+  </si>
+  <si>
+    <t>test1-txt-16</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/compressed_1736388207/test1.txt</t>
+  </si>
+  <si>
+    <t>bot-jpg-17</t>
+  </si>
+  <si>
+    <t>/uploads/fileserver/abc/123/bot.jpg</t>
   </si>
 </sst>
 </file>
@@ -633,10 +738,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4:G7"/>
+      <selection activeCell="A4" sqref="A4:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -710,29 +815,29 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
-        <v>123</v>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -755,86 +860,658 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" customHeight="1" ht="20">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" customHeight="1" ht="20">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" customHeight="1" ht="20">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" customHeight="1" ht="20">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7">
+        <v>123</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" customHeight="1" ht="20">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" customHeight="1" ht="20">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" customHeight="1" ht="20">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" customHeight="1" ht="20">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" customHeight="1" ht="20">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7">
+        <v>123</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" customHeight="1" ht="20">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="20">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" customHeight="1" ht="20">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" customHeight="1" ht="20">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" customHeight="1" ht="20">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" customHeight="1" ht="20">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
     </row>
